--- a/mbs-perturbation/nano/welm/nano_welm_tanh_results.xlsx
+++ b/mbs-perturbation/nano/welm/nano_welm_tanh_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9358974358974359</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.55</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7920440636474908</v>
+        <v>0.8454663212435233</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9529914529914529</v>
+        <v>0.9624413145539906</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5217391304347827</v>
+        <v>0.6</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8126331811263318</v>
+        <v>0.8542307692307691</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9227467811158798</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6391675956893348</v>
+        <v>0.7622767857142857</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.944206008583691</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8018937530742745</v>
+        <v>0.7102864583333334</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9098712446351931</v>
+        <v>0.9009433962264151</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7480611805256355</v>
+        <v>0.7654545454545454</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9331425846447307</v>
+        <v>0.9312206572769952</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3028192859771807</v>
+        <v>0.3123076923076923</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4324959742351047</v>
+        <v>0.4272612270714737</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7587599548126135</v>
+        <v>0.7875429759952913</v>
       </c>
     </row>
   </sheetData>
